--- a/basic English learn/the part of passage/2024-4-11(8)/word.xlsx
+++ b/basic English learn/the part of passage/2024-4-11(8)/word.xlsx
@@ -4,19 +4,400 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="9120" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+  <si>
+    <t>nomads</t>
+  </si>
+  <si>
+    <t>游牧民</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifestyle </t>
+  </si>
+  <si>
+    <t>生活方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silhouette </t>
+  </si>
+  <si>
+    <t>轮廓 侧影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occasionally </t>
+  </si>
+  <si>
+    <t>偶尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property </t>
+  </si>
+  <si>
+    <t>财产</t>
+  </si>
+  <si>
+    <t>settle in</t>
+  </si>
+  <si>
+    <t>稳定下来</t>
+  </si>
+  <si>
+    <t>uneven</t>
+  </si>
+  <si>
+    <t>不平滑的 不平坦的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full of </t>
+  </si>
+  <si>
+    <t>充满</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unexpectedly </t>
+  </si>
+  <si>
+    <t>意外地</t>
+  </si>
+  <si>
+    <t>disassociate</t>
+  </si>
+  <si>
+    <t>使分开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aimlessly </t>
+  </si>
+  <si>
+    <t>无目标地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certainty </t>
+  </si>
+  <si>
+    <t>确实 确定性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internally </t>
+  </si>
+  <si>
+    <t>在国内 在内部</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果核 核心 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attachments </t>
+  </si>
+  <si>
+    <t>附属品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day-to-day </t>
+  </si>
+  <si>
+    <t>日常的</t>
+  </si>
+  <si>
+    <t>catch up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赶上 </t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>许可证</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>盘子</t>
+  </si>
+  <si>
+    <t>license plate</t>
+  </si>
+  <si>
+    <t>车牌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane </t>
+  </si>
+  <si>
+    <t>小路</t>
+  </si>
+  <si>
+    <t>sped (speed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加速  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knock off </t>
+  </si>
+  <si>
+    <t>撞落</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive off </t>
+  </si>
+  <si>
+    <t>把车开走</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentionally </t>
+  </si>
+  <si>
+    <t>有意地</t>
+  </si>
+  <si>
+    <t>swerve</t>
+  </si>
+  <si>
+    <t>突然转向 急转弯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">负有责任的 </t>
+  </si>
+  <si>
+    <t>mystery</t>
+  </si>
+  <si>
+    <t>难以理解的事物</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>而不是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obscurity </t>
+  </si>
+  <si>
+    <t>无名  默默无闻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surrender </t>
+  </si>
+  <si>
+    <t>投降 放弃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid </t>
+  </si>
+  <si>
+    <t>网格 表格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenery </t>
+  </si>
+  <si>
+    <t>风景</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>特征 特点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appreciation </t>
+  </si>
+  <si>
+    <t>欣赏 感谢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newfound </t>
+  </si>
+  <si>
+    <t>新发现的</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>简单 简易</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identify </t>
+  </si>
+  <si>
+    <t>认出 识别</t>
+  </si>
+  <si>
+    <t>soak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湿透  </t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>热量</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>命令 口述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curb </t>
+  </si>
+  <si>
+    <t>控制</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>洒出 溢出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discomfort </t>
+  </si>
+  <si>
+    <t>不适  不便之处</t>
+  </si>
+  <si>
+    <t>ass off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motel </t>
+  </si>
+  <si>
+    <t>汽车旅馆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced </t>
+  </si>
+  <si>
+    <t>先进的 高级的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironically </t>
+  </si>
+  <si>
+    <t>讽刺地</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>捕获 占领</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no amount of </t>
+  </si>
+  <si>
+    <t>无论多少都无法满足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encapsulate </t>
+  </si>
+  <si>
+    <t>简要描述 概括</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">深刻的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shape into </t>
+  </si>
+  <si>
+    <t>塑造成</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>分界线 边界</t>
+  </si>
+  <si>
+    <t>comfort zone</t>
+  </si>
+  <si>
+    <t>舒适区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet up with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">偶然碰见 </t>
+  </si>
+  <si>
+    <t>paralyze</t>
+  </si>
+  <si>
+    <t>使麻痹 使瘫痪</t>
+  </si>
+  <si>
+    <t>take a step</t>
+  </si>
+  <si>
+    <t>迈一步</t>
+  </si>
+  <si>
+    <t>head on</t>
+  </si>
+  <si>
+    <t>迎面地</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>寻找 寻求</t>
+  </si>
+  <si>
+    <t>borderless</t>
+  </si>
+  <si>
+    <t>无边界的 无国界的</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -941,14 +1322,504 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="20.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -964,7 +1835,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -981,7 +1852,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
